--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H2">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N2">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O2">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P2">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q2">
-        <v>113.966636578588</v>
+        <v>4.718809206264999</v>
       </c>
       <c r="R2">
-        <v>1025.699729207292</v>
+        <v>42.46928285638499</v>
       </c>
       <c r="S2">
-        <v>0.03175244748078916</v>
+        <v>0.003866547080287951</v>
       </c>
       <c r="T2">
-        <v>0.03175244748078916</v>
+        <v>0.003866547080287951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H3">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q3">
-        <v>39.89754993214</v>
+        <v>19.21126085943333</v>
       </c>
       <c r="R3">
-        <v>359.07794938926</v>
+        <v>172.9013477349</v>
       </c>
       <c r="S3">
-        <v>0.01111592740528813</v>
+        <v>0.01574152319743538</v>
       </c>
       <c r="T3">
-        <v>0.01111592740528813</v>
+        <v>0.01574152319743538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H4">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N4">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q4">
-        <v>22.923464077251</v>
+        <v>8.121358940354998</v>
       </c>
       <c r="R4">
-        <v>206.311176695259</v>
+        <v>73.09223046319499</v>
       </c>
       <c r="S4">
-        <v>0.006386747130935531</v>
+        <v>0.006654563752463065</v>
       </c>
       <c r="T4">
-        <v>0.006386747130935531</v>
+        <v>0.006654563752463065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.46983</v>
       </c>
       <c r="H5">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N5">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O5">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P5">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q5">
-        <v>1241.453705939293</v>
+        <v>106.75189023037</v>
       </c>
       <c r="R5">
-        <v>11173.08335345364</v>
+        <v>960.76701207333</v>
       </c>
       <c r="S5">
-        <v>0.3458836268321929</v>
+        <v>0.08747147668895962</v>
       </c>
       <c r="T5">
-        <v>0.3458836268321929</v>
+        <v>0.08747147668895963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.46983</v>
       </c>
       <c r="H6">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q6">
         <v>434.6093094271333</v>
       </c>
       <c r="R6">
-        <v>3911.483784844199</v>
+        <v>3911.4837848442</v>
       </c>
       <c r="S6">
-        <v>0.1210872733155645</v>
+        <v>0.356114706693457</v>
       </c>
       <c r="T6">
-        <v>0.1210872733155645</v>
+        <v>0.356114706693457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.46983</v>
       </c>
       <c r="H7">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N7">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q7">
-        <v>249.70833821217</v>
+        <v>183.72652510959</v>
       </c>
       <c r="R7">
-        <v>2247.37504390953</v>
+        <v>1653.53872598631</v>
       </c>
       <c r="S7">
-        <v>0.06957168459674216</v>
+        <v>0.1505437554649973</v>
       </c>
       <c r="T7">
-        <v>0.06957168459674216</v>
+        <v>0.1505437554649973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H8">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N8">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O8">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P8">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q8">
-        <v>958.3824035036124</v>
+        <v>68.20698258266198</v>
       </c>
       <c r="R8">
-        <v>8625.441631532512</v>
+        <v>613.8628432439579</v>
       </c>
       <c r="S8">
-        <v>0.2670166273861793</v>
+        <v>0.05588814843586039</v>
       </c>
       <c r="T8">
-        <v>0.2670166273861793</v>
+        <v>0.05588814843586039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H9">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q9">
-        <v>335.5114351514844</v>
+        <v>277.6849153152133</v>
       </c>
       <c r="R9">
-        <v>3019.60291636336</v>
+        <v>2499.164237836919</v>
       </c>
       <c r="S9">
-        <v>0.09347743816678754</v>
+        <v>0.2275323607334145</v>
       </c>
       <c r="T9">
-        <v>0.09347743816678754</v>
+        <v>0.2275323607334144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H10">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N10">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q10">
-        <v>192.770842928536</v>
+        <v>117.388384140834</v>
       </c>
       <c r="R10">
-        <v>1734.937586356824</v>
+        <v>1056.495457267506</v>
       </c>
       <c r="S10">
-        <v>0.05370822768552069</v>
+        <v>0.09618691795312494</v>
       </c>
       <c r="T10">
-        <v>0.05370822768552069</v>
+        <v>0.09618691795312492</v>
       </c>
     </row>
   </sheetData>
